--- a/com.redfin/src/test/resources/RedfinTestData.xlsx
+++ b/com.redfin/src/test/resources/RedfinTestData.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janna\IdeaProjects\Team1BootCamp\base\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janna\IdeaProjects\Team1BootCamp\com.redfin\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B2ED8D-B047-4ABF-AA4E-997B67673F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0005E68D-B952-4DB1-A95A-CA76AB0B1FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="855" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedia" sheetId="1" r:id="rId1"/>
-    <sheet name="Ebay" sheetId="2" r:id="rId2"/>
-    <sheet name="CBSSports" sheetId="3" r:id="rId3"/>
-    <sheet name="ATT" sheetId="4" r:id="rId4"/>
-    <sheet name="BankOfAmerica" sheetId="5" r:id="rId5"/>
+    <sheet name="AgeantSearch" sheetId="1" r:id="rId1"/>
+    <sheet name="HomeSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="Email" sheetId="3" r:id="rId3"/>
+    <sheet name="Phone" sheetId="4" r:id="rId4"/>
+    <sheet name="ErrorMesage" sheetId="5" r:id="rId5"/>
     <sheet name="BMWUSA" sheetId="6" r:id="rId6"/>
     <sheet name="Trulia" sheetId="7" r:id="rId7"/>
     <sheet name="AirBNB" sheetId="8" r:id="rId8"/>
@@ -38,19 +38,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>AgeantSearch</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>HomeSearch</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>ErrorMesage</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address</t>
+  </si>
+  <si>
+    <t>Please enter a valid phone number</t>
+  </si>
+  <si>
+    <t>Phone is a required field</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,13 +114,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,143 +436,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16D271-5906-41EE-853E-85EA245B6942}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C6DB0C-125D-41E6-B672-3FA74959CDA8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4F54D1-3917-41AA-9115-54DFB60054C4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A4ED8F-84C7-4351-B184-022F160E827E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1F144-5BE0-43B5-8C2F-943F03339C79}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C25186B-8AE5-4703-8BDB-6D9F1A2F53C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751B09C-FE73-4F13-A91B-81E55B55AAEA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A517B4-AB0A-4E50-8324-F3955FA294DA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464987E-CA86-496F-AFAF-2580C40BA720}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB124C4-9CEE-457F-95C0-47C63DA908AF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C6DB0C-125D-41E6-B672-3FA74959CDA8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4F54D1-3917-41AA-9115-54DFB60054C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A4ED8F-84C7-4351-B184-022F160E827E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1F144-5BE0-43B5-8C2F-943F03339C79}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C25186B-8AE5-4703-8BDB-6D9F1A2F53C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751B09C-FE73-4F13-A91B-81E55B55AAEA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A517B4-AB0A-4E50-8324-F3955FA294DA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>21342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>21342</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D63B2CE2-ABAD-4C13-800B-89DF8F04FFBF}"/>
+    <hyperlink ref="A3" r:id="rId2" display="abc@gmail.com" xr:uid="{A7A70532-58D4-4A9F-9811-768529346320}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464987E-CA86-496F-AFAF-2580C40BA720}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>21342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB124C4-9CEE-457F-95C0-47C63DA908AF}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -564,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06E338-1C0F-45E0-B136-3FC6897D7CEC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
